--- a/src/test/resources/department_blank_error.xlsx
+++ b/src/test/resources/department_blank_error.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="X63vqxGaR0w3itOZCFSudR4Bv4X4jNKmFGHlbFTqctsd/u8oR4S3M35A+12MYHgTdmTrEWGpbu8lqphyfAAk9w==" workbookSaltValue="kUk0Az6feS+owcQsOXQmqw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ДАННЫЕ О ВАШЕЙ ОРГАНИЗАЦИИ" sheetId="1" r:id="rId1"/>
@@ -3333,9 +3333,6 @@
     <t>Тамиэр</t>
   </si>
   <si>
-    <t xml:space="preserve">Чэнь Иньфань </t>
-  </si>
-  <si>
     <t xml:space="preserve">Иньфань </t>
   </si>
   <si>
@@ -4542,9 +4539,6 @@
     <t xml:space="preserve">Леонидович </t>
   </si>
   <si>
-    <t>Байтлесов  Толебекович</t>
-  </si>
-  <si>
     <t>Серик</t>
   </si>
   <si>
@@ -4972,6 +4966,12 @@
   </si>
   <si>
     <t>1234567890</t>
+  </si>
+  <si>
+    <t>Чэнь</t>
+  </si>
+  <si>
+    <t>Байтлесов</t>
   </si>
 </sst>
 </file>
@@ -5980,7 +5980,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="30"/>
@@ -7371,8 +7371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C1205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14388,28 +14388,28 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="65" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B638" s="65" t="s">
         <v>945</v>
-      </c>
-      <c r="B638" s="65" t="s">
-        <v>946</v>
       </c>
       <c r="C638" s="65"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="65" t="s">
+        <v>946</v>
+      </c>
+      <c r="B639" s="65" t="s">
         <v>947</v>
-      </c>
-      <c r="B639" s="65" t="s">
-        <v>948</v>
       </c>
       <c r="C639" s="65"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="65" t="s">
+        <v>948</v>
+      </c>
+      <c r="B640" s="65" t="s">
         <v>949</v>
-      </c>
-      <c r="B640" s="65" t="s">
-        <v>950</v>
       </c>
       <c r="C640" s="65" t="s">
         <v>322</v>
@@ -14417,10 +14417,10 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="65" t="s">
+        <v>950</v>
+      </c>
+      <c r="B641" s="65" t="s">
         <v>951</v>
-      </c>
-      <c r="B641" s="65" t="s">
-        <v>952</v>
       </c>
       <c r="C641" s="65" t="s">
         <v>353</v>
@@ -14428,10 +14428,10 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="65" t="s">
+        <v>952</v>
+      </c>
+      <c r="B642" s="65" t="s">
         <v>953</v>
-      </c>
-      <c r="B642" s="65" t="s">
-        <v>954</v>
       </c>
       <c r="C642" s="65" t="s">
         <v>112</v>
@@ -14439,10 +14439,10 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="65" t="s">
+        <v>954</v>
+      </c>
+      <c r="B643" s="65" t="s">
         <v>955</v>
-      </c>
-      <c r="B643" s="65" t="s">
-        <v>956</v>
       </c>
       <c r="C643" s="65" t="s">
         <v>185</v>
@@ -14450,7 +14450,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="65" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B644" s="65" t="s">
         <v>657</v>
@@ -14461,13 +14461,13 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="65" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B645" s="65" t="s">
         <v>177</v>
       </c>
       <c r="C645" s="65" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
@@ -14483,13 +14483,13 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="65" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B647" s="65" t="s">
         <v>250</v>
       </c>
       <c r="C647" s="65" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
@@ -14505,18 +14505,18 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="65" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B649" s="65" t="s">
         <v>616</v>
       </c>
       <c r="C649" s="65" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="65" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B650" s="65" t="s">
         <v>95</v>
@@ -14527,7 +14527,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="65" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B651" s="65" t="s">
         <v>264</v>
@@ -14538,7 +14538,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="65" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B652" s="65" t="s">
         <v>271</v>
@@ -14549,7 +14549,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="65" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B653" s="65" t="s">
         <v>95</v>
@@ -14560,7 +14560,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="65" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B654" s="65" t="s">
         <v>264</v>
@@ -14571,10 +14571,10 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="65" t="s">
+        <v>968</v>
+      </c>
+      <c r="B655" s="65" t="s">
         <v>969</v>
-      </c>
-      <c r="B655" s="65" t="s">
-        <v>970</v>
       </c>
       <c r="C655" s="65" t="s">
         <v>115</v>
@@ -14582,7 +14582,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="65" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B656" s="65" t="s">
         <v>106</v>
@@ -14593,7 +14593,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="65" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B657" s="65" t="s">
         <v>146</v>
@@ -14607,15 +14607,15 @@
         <v>457</v>
       </c>
       <c r="B658" s="65" t="s">
+        <v>972</v>
+      </c>
+      <c r="C658" s="65" t="s">
         <v>973</v>
-      </c>
-      <c r="C658" s="65" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="65" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B659" s="65" t="s">
         <v>104</v>
@@ -14640,7 +14640,7 @@
         <v>67</v>
       </c>
       <c r="B661" s="65" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C661" s="65" t="s">
         <v>125</v>
@@ -14648,7 +14648,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="65" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B662" s="65" t="s">
         <v>101</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="65" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B663" s="65" t="s">
         <v>287</v>
@@ -14670,7 +14670,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="65" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B664" s="65" t="s">
         <v>146</v>
@@ -14681,21 +14681,21 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="65" t="s">
+        <v>979</v>
+      </c>
+      <c r="B665" s="65" t="s">
         <v>980</v>
       </c>
-      <c r="B665" s="65" t="s">
+      <c r="C665" s="65" t="s">
         <v>981</v>
-      </c>
-      <c r="C665" s="65" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="65" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B666" s="65" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C666" s="65" t="s">
         <v>284</v>
@@ -14703,7 +14703,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="65" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B667" s="65" t="s">
         <v>624</v>
@@ -14725,7 +14725,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="65" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B669" s="65" t="s">
         <v>264</v>
@@ -14736,7 +14736,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="65" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B670" s="65" t="s">
         <v>400</v>
@@ -14747,7 +14747,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="65" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B671" s="65" t="s">
         <v>250</v>
@@ -14758,18 +14758,18 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="65" t="s">
+        <v>987</v>
+      </c>
+      <c r="B672" s="65" t="s">
         <v>988</v>
       </c>
-      <c r="B672" s="65" t="s">
+      <c r="C672" s="65" t="s">
         <v>989</v>
-      </c>
-      <c r="C672" s="65" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="65" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B673" s="65" t="s">
         <v>130</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="65" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B674" s="65" t="s">
         <v>375</v>
@@ -14791,7 +14791,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="65" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B675" s="65" t="s">
         <v>392</v>
@@ -14802,7 +14802,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="65" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B676" s="65" t="s">
         <v>175</v>
@@ -14813,7 +14813,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="65" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B677" s="65" t="s">
         <v>250</v>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="65" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B678" s="65" t="s">
         <v>570</v>
@@ -14835,21 +14835,21 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="65" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B679" s="65" t="s">
         <v>681</v>
       </c>
       <c r="C679" s="65" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="65" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B680" s="65" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C680" s="65" t="s">
         <v>866</v>
@@ -14857,7 +14857,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="65" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B681" s="65" t="s">
         <v>453</v>
@@ -14868,7 +14868,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="65" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B682" s="65" t="s">
         <v>130</v>
@@ -14879,7 +14879,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="65" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B683" s="65" t="s">
         <v>95</v>
@@ -14890,21 +14890,21 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="65" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B684" s="65" t="s">
         <v>570</v>
       </c>
       <c r="C684" s="65" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="65" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B685" s="65" t="s">
         <v>1004</v>
-      </c>
-      <c r="B685" s="65" t="s">
-        <v>1005</v>
       </c>
       <c r="C685" s="65" t="s">
         <v>99</v>
@@ -14912,7 +14912,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="65" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B686" s="65" t="s">
         <v>741</v>
@@ -14923,10 +14923,10 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="65" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B687" s="65" t="s">
         <v>1007</v>
-      </c>
-      <c r="B687" s="65" t="s">
-        <v>1008</v>
       </c>
       <c r="C687" s="65" t="s">
         <v>504</v>
@@ -14937,7 +14937,7 @@
         <v>907</v>
       </c>
       <c r="B688" s="65" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C688" s="65" t="s">
         <v>273</v>
@@ -14945,29 +14945,29 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="65" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B689" s="65" t="s">
         <v>336</v>
       </c>
       <c r="C689" s="65" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="65" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B690" s="65" t="s">
         <v>336</v>
       </c>
       <c r="C690" s="65" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="65" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B691" s="65" t="s">
         <v>334</v>
@@ -15000,7 +15000,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="65" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B694" s="65" t="s">
         <v>175</v>
@@ -15011,7 +15011,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="65" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B695" s="65" t="s">
         <v>68</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="65" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B697" s="65" t="s">
         <v>146</v>
@@ -15044,7 +15044,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="65" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B698" s="65" t="s">
         <v>453</v>
@@ -15055,13 +15055,13 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="65" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B699" s="65" t="s">
         <v>1017</v>
       </c>
-      <c r="B699" s="65" t="s">
+      <c r="C699" s="65" t="s">
         <v>1018</v>
-      </c>
-      <c r="C699" s="65" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
@@ -15077,18 +15077,18 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="65" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B701" s="65" t="s">
         <v>130</v>
       </c>
       <c r="C701" s="65" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="65" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B702" s="65" t="s">
         <v>104</v>
@@ -15099,7 +15099,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="65" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B703" s="65" t="s">
         <v>523</v>
@@ -15116,7 +15116,7 @@
         <v>523</v>
       </c>
       <c r="C704" s="65" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
@@ -15132,7 +15132,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="65" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B706" s="65" t="s">
         <v>130</v>
@@ -15143,7 +15143,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="65" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B707" s="65" t="s">
         <v>175</v>
@@ -15154,7 +15154,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="65" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B708" s="65" t="s">
         <v>334</v>
@@ -15165,18 +15165,18 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="65" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B709" s="65" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C709" s="65" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="65" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B710" s="65" t="s">
         <v>375</v>
@@ -15187,7 +15187,7 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="65" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B711" s="65" t="s">
         <v>168</v>
@@ -15198,7 +15198,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="65" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B712" s="65" t="s">
         <v>616</v>
@@ -15220,7 +15220,7 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="65" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B714" s="65" t="s">
         <v>616</v>
@@ -15231,7 +15231,7 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="65" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B715" s="65" t="s">
         <v>175</v>
@@ -15253,7 +15253,7 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="65" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B717" s="65" t="s">
         <v>336</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="65" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B719" s="65" t="s">
         <v>244</v>
@@ -15286,7 +15286,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="65" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B720" s="65" t="s">
         <v>132</v>
@@ -15297,7 +15297,7 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="65" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B721" s="65" t="s">
         <v>175</v>
@@ -15308,7 +15308,7 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="65" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B722" s="65" t="s">
         <v>101</v>
@@ -15319,7 +15319,7 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="65" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B723" s="65" t="s">
         <v>244</v>
@@ -15330,18 +15330,18 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="65" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B724" s="65" t="s">
         <v>98</v>
       </c>
       <c r="C724" s="65" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="65" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B725" s="65" t="s">
         <v>264</v>
@@ -15352,10 +15352,10 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="65" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B726" s="65" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C726" s="65" t="s">
         <v>339</v>
@@ -15374,18 +15374,18 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="65" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B728" s="65" t="s">
         <v>320</v>
       </c>
       <c r="C728" s="65" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="65" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B729" s="65" t="s">
         <v>375</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="65" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B738" s="65" t="s">
         <v>146</v>
@@ -15495,7 +15495,7 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="65" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B739" s="65" t="s">
         <v>688</v>
@@ -15506,7 +15506,7 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="65" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B740" s="65" t="s">
         <v>336</v>
@@ -15517,7 +15517,7 @@
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="65" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B741" s="65" t="s">
         <v>146</v>
@@ -15627,7 +15627,7 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="65" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B751" s="65" t="s">
         <v>264</v>
@@ -15638,7 +15638,7 @@
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="65" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B752" s="65" t="s">
         <v>130</v>
@@ -15649,7 +15649,7 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="65" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B753" s="65" t="s">
         <v>164</v>
@@ -15660,7 +15660,7 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="65" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B754" s="65" t="s">
         <v>172</v>
@@ -15671,29 +15671,29 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="65" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B755" s="65" t="s">
         <v>244</v>
       </c>
       <c r="C755" s="65" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="65" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B756" s="65" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C756" s="65" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="65" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B757" s="65" t="s">
         <v>432</v>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="65" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B758" s="65" t="s">
         <v>255</v>
@@ -15715,7 +15715,7 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="65" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B759" s="65" t="s">
         <v>312</v>
@@ -15726,7 +15726,7 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="65" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B760" s="65" t="s">
         <v>175</v>
@@ -15737,18 +15737,18 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="65" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B761" s="65" t="s">
         <v>392</v>
       </c>
       <c r="C761" s="65" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="65" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B762" s="65" t="s">
         <v>106</v>
@@ -15759,7 +15759,7 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="65" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B763" s="65" t="s">
         <v>95</v>
@@ -15770,24 +15770,24 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="65" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B764" s="65" t="s">
         <v>1062</v>
       </c>
-      <c r="B764" s="65" t="s">
+      <c r="C764" s="65" t="s">
         <v>1063</v>
-      </c>
-      <c r="C764" s="65" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="65" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B765" s="65" t="s">
         <v>1065</v>
       </c>
-      <c r="B765" s="65" t="s">
+      <c r="C765" s="65" t="s">
         <v>1066</v>
-      </c>
-      <c r="C765" s="65" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
@@ -15803,7 +15803,7 @@
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="65" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B767" s="65" t="s">
         <v>177</v>
@@ -15814,7 +15814,7 @@
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="65" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B768" s="65" t="s">
         <v>146</v>
@@ -15825,7 +15825,7 @@
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="65" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B769" s="65" t="s">
         <v>264</v>
@@ -15836,7 +15836,7 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="65" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B770" s="65" t="s">
         <v>130</v>
@@ -15850,7 +15850,7 @@
         <v>159</v>
       </c>
       <c r="B771" s="65" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C771" s="65" t="s">
         <v>109</v>
@@ -15858,7 +15858,7 @@
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="65" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B772" s="65" t="s">
         <v>162</v>
@@ -15869,7 +15869,7 @@
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="65" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B773" s="65" t="s">
         <v>264</v>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="65" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B774" s="65" t="s">
         <v>130</v>
@@ -15894,7 +15894,7 @@
         <v>159</v>
       </c>
       <c r="B775" s="65" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C775" s="65" t="s">
         <v>109</v>
@@ -15902,7 +15902,7 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="65" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B776" s="65" t="s">
         <v>164</v>
@@ -15913,7 +15913,7 @@
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="65" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B777" s="65" t="s">
         <v>104</v>
@@ -15924,29 +15924,29 @@
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="65" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B778" s="65" t="s">
         <v>806</v>
       </c>
       <c r="C778" s="65" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="65" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B779" s="65" t="s">
         <v>1073</v>
       </c>
-      <c r="B779" s="65" t="s">
+      <c r="C779" s="65" t="s">
         <v>1074</v>
-      </c>
-      <c r="C779" s="65" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="65" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B780" s="65" t="s">
         <v>104</v>
@@ -15957,7 +15957,7 @@
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="65" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B781" s="65" t="s">
         <v>98</v>
@@ -15968,21 +15968,21 @@
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="65" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B782" s="65" t="s">
         <v>193</v>
       </c>
       <c r="C782" s="65" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="65" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B783" s="65" t="s">
         <v>1080</v>
-      </c>
-      <c r="B783" s="65" t="s">
-        <v>1081</v>
       </c>
       <c r="C783" s="65" t="s">
         <v>102</v>
@@ -15990,7 +15990,7 @@
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="65" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B784" s="65" t="s">
         <v>681</v>
@@ -16001,7 +16001,7 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="65" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B785" s="65" t="s">
         <v>164</v>
@@ -16012,7 +16012,7 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="65" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B786" s="65" t="s">
         <v>164</v>
@@ -16023,18 +16023,18 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="65" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B787" s="65" t="s">
         <v>616</v>
       </c>
       <c r="C787" s="65" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="65" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B788" s="65" t="s">
         <v>164</v>
@@ -16045,7 +16045,7 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="65" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B789" s="65" t="s">
         <v>164</v>
@@ -16056,7 +16056,7 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="65" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B790" s="65" t="s">
         <v>130</v>
@@ -16067,7 +16067,7 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="65" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B791" s="65" t="s">
         <v>104</v>
@@ -16078,16 +16078,16 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="65" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B792" s="65" t="s">
         <v>1087</v>
-      </c>
-      <c r="B792" s="65" t="s">
-        <v>1088</v>
       </c>
       <c r="C792" s="65"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="65" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B793" s="65" t="s">
         <v>175</v>
@@ -16098,10 +16098,10 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="65" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B794" s="65" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C794" s="65" t="s">
         <v>185</v>
@@ -16109,10 +16109,10 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="65" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B795" s="65" t="s">
         <v>1091</v>
-      </c>
-      <c r="B795" s="65" t="s">
-        <v>1092</v>
       </c>
       <c r="C795" s="65" t="s">
         <v>191</v>
@@ -16131,10 +16131,10 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="65" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B797" s="65" t="s">
         <v>1093</v>
-      </c>
-      <c r="B797" s="65" t="s">
-        <v>1094</v>
       </c>
       <c r="C797" s="65" t="s">
         <v>112</v>
@@ -16142,7 +16142,7 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="65" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B798" s="65" t="s">
         <v>135</v>
@@ -16153,7 +16153,7 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="65" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B799" s="65" t="s">
         <v>175</v>
@@ -16164,7 +16164,7 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="65" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B800" s="65" t="s">
         <v>98</v>
@@ -16175,7 +16175,7 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="65" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B801" s="65" t="s">
         <v>98</v>
@@ -16186,7 +16186,7 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="65" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B802" s="65" t="s">
         <v>127</v>
@@ -16197,7 +16197,7 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="65" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B803" s="65" t="s">
         <v>299</v>
@@ -16208,7 +16208,7 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="65" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B804" s="65" t="s">
         <v>138</v>
@@ -16219,10 +16219,10 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="65" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B805" s="65" t="s">
         <v>1102</v>
-      </c>
-      <c r="B805" s="65" t="s">
-        <v>1103</v>
       </c>
       <c r="C805" s="65" t="s">
         <v>173</v>
@@ -16230,7 +16230,7 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="65" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B806" s="65" t="s">
         <v>817</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="65" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B807" s="65" t="s">
         <v>299</v>
@@ -16252,7 +16252,7 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="65" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B808" s="65" t="s">
         <v>127</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" s="65" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B809" s="65" t="s">
         <v>901</v>
@@ -16274,7 +16274,7 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="65" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B810" s="65" t="s">
         <v>287</v>
@@ -16285,7 +16285,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" s="65" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B811" s="65" t="s">
         <v>175</v>
@@ -16296,29 +16296,29 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="65" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B812" s="65" t="s">
         <v>852</v>
       </c>
       <c r="C812" s="65" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" s="65" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B813" s="65" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C813" s="65" t="s">
         <v>1111</v>
-      </c>
-      <c r="B813" s="65" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C813" s="65" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="65" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B814" s="65" t="s">
         <v>146</v>
@@ -16329,7 +16329,7 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" s="65" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B815" s="65" t="s">
         <v>852</v>
@@ -16340,7 +16340,7 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="65" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B816" s="65" t="s">
         <v>715</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="65" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B817" s="65" t="s">
         <v>616</v>
@@ -16362,7 +16362,7 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="65" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B818" s="65" t="s">
         <v>568</v>
@@ -16373,7 +16373,7 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="65" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B819" s="65" t="s">
         <v>264</v>
@@ -16395,7 +16395,7 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" s="65" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B821" s="65" t="s">
         <v>138</v>
@@ -16406,7 +16406,7 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="65" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B822" s="65" t="s">
         <v>175</v>
@@ -16417,18 +16417,18 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="65" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B823" s="65" t="s">
         <v>453</v>
       </c>
       <c r="C823" s="65" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="65" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B824" s="65" t="s">
         <v>310</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" s="65" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B827" s="65" t="s">
         <v>287</v>
@@ -16472,7 +16472,7 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" s="65" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B828" s="65" t="s">
         <v>130</v>
@@ -16483,7 +16483,7 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" s="65" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B829" s="65" t="s">
         <v>375</v>
@@ -16494,7 +16494,7 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="65" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B830" s="65" t="s">
         <v>95</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="65" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B831" s="65" t="s">
         <v>104</v>
@@ -16516,7 +16516,7 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="65" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B832" s="65" t="s">
         <v>162</v>
@@ -16538,10 +16538,10 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="65" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B834" s="65" t="s">
         <v>1129</v>
-      </c>
-      <c r="B834" s="65" t="s">
-        <v>1130</v>
       </c>
       <c r="C834" s="65" t="s">
         <v>182</v>
@@ -16549,7 +16549,7 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="65" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B835" s="65" t="s">
         <v>264</v>
@@ -16560,7 +16560,7 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" s="65" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B836" s="65" t="s">
         <v>271</v>
@@ -16571,7 +16571,7 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="65" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B837" s="65" t="s">
         <v>568</v>
@@ -16593,7 +16593,7 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" s="65" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B839" s="65" t="s">
         <v>138</v>
@@ -16604,7 +16604,7 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" s="65" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B840" s="65" t="s">
         <v>247</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841" s="65" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B841" s="65" t="s">
         <v>334</v>
@@ -16626,7 +16626,7 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" s="65" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B842" s="65" t="s">
         <v>130</v>
@@ -16637,7 +16637,7 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" s="65" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B843" s="65" t="s">
         <v>104</v>
@@ -16648,7 +16648,7 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844" s="65" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B844" s="65" t="s">
         <v>392</v>
@@ -16659,7 +16659,7 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" s="65" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B845" s="65" t="s">
         <v>715</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="65" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B846" s="65" t="s">
         <v>310</v>
@@ -16681,7 +16681,7 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" s="65" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B847" s="65" t="s">
         <v>568</v>
@@ -16692,7 +16692,7 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" s="65" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B848" s="65" t="s">
         <v>175</v>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A849" s="65" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B849" s="65" t="s">
         <v>172</v>
@@ -16725,7 +16725,7 @@
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A851" s="65" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B851" s="65" t="s">
         <v>271</v>
@@ -16736,7 +16736,7 @@
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A852" s="65" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B852" s="65" t="s">
         <v>98</v>
@@ -16747,7 +16747,7 @@
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A853" s="65" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B853" s="65" t="s">
         <v>310</v>
@@ -16758,18 +16758,18 @@
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A854" s="65" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B854" s="65" t="s">
         <v>135</v>
       </c>
       <c r="C854" s="65" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A855" s="65" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B855" s="65" t="s">
         <v>244</v>
@@ -16780,7 +16780,7 @@
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A856" s="65" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B856" s="65" t="s">
         <v>287</v>
@@ -16791,7 +16791,7 @@
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A857" s="65" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B857" s="65" t="s">
         <v>130</v>
@@ -16802,7 +16802,7 @@
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A858" s="65" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B858" s="65" t="s">
         <v>106</v>
@@ -16813,7 +16813,7 @@
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A859" s="65" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B859" s="65" t="s">
         <v>95</v>
@@ -16824,7 +16824,7 @@
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A860" s="65" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B860" s="65" t="s">
         <v>275</v>
@@ -16835,7 +16835,7 @@
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861" s="65" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B861" s="65" t="s">
         <v>104</v>
@@ -16846,7 +16846,7 @@
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A862" s="65" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B862" s="65" t="s">
         <v>175</v>
@@ -16857,7 +16857,7 @@
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A863" s="65" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B863" s="65" t="s">
         <v>130</v>
@@ -16868,7 +16868,7 @@
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A864" s="65" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B864" s="65" t="s">
         <v>130</v>
@@ -16879,7 +16879,7 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865" s="65" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B865" s="65" t="s">
         <v>175</v>
@@ -16890,7 +16890,7 @@
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A866" s="65" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B866" s="65" t="s">
         <v>98</v>
@@ -16901,7 +16901,7 @@
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867" s="65" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B867" s="65" t="s">
         <v>568</v>
@@ -16912,7 +16912,7 @@
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A868" s="65" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B868" s="65" t="s">
         <v>616</v>
@@ -16923,7 +16923,7 @@
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869" s="65" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B869" s="65" t="s">
         <v>175</v>
@@ -16934,7 +16934,7 @@
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870" s="65" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B870" s="65" t="s">
         <v>135</v>
@@ -16945,7 +16945,7 @@
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871" s="65" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B871" s="65" t="s">
         <v>175</v>
@@ -16956,7 +16956,7 @@
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A872" s="65" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B872" s="65" t="s">
         <v>104</v>
@@ -16967,7 +16967,7 @@
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873" s="65" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B873" s="65" t="s">
         <v>310</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A874" s="65" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B874" s="65" t="s">
         <v>336</v>
@@ -16989,7 +16989,7 @@
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A875" s="65" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B875" s="65" t="s">
         <v>392</v>
@@ -17000,7 +17000,7 @@
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A876" s="65" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B876" s="65" t="s">
         <v>130</v>
@@ -17011,7 +17011,7 @@
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A877" s="65" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B877" s="65" t="s">
         <v>162</v>
@@ -17022,13 +17022,13 @@
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A878" s="65" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B878" s="65" t="s">
         <v>104</v>
       </c>
       <c r="C878" s="65" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.3">
@@ -17044,10 +17044,10 @@
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A880" s="65" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B880" s="65" t="s">
         <v>1169</v>
-      </c>
-      <c r="B880" s="65" t="s">
-        <v>1170</v>
       </c>
       <c r="C880" s="65" t="s">
         <v>454</v>
@@ -17055,10 +17055,10 @@
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A881" s="65" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B881" s="65" t="s">
         <v>1171</v>
-      </c>
-      <c r="B881" s="65" t="s">
-        <v>1172</v>
       </c>
       <c r="C881" s="65" t="s">
         <v>337</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A882" s="65" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B882" s="65" t="s">
         <v>104</v>
@@ -17077,7 +17077,7 @@
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A883" s="65" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B883" s="65" t="s">
         <v>146</v>
@@ -17088,7 +17088,7 @@
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A884" s="65" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B884" s="65" t="s">
         <v>146</v>
@@ -17099,18 +17099,18 @@
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A885" s="65" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B885" s="65" t="s">
         <v>172</v>
       </c>
       <c r="C885" s="65" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A886" s="65" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B886" s="65" t="s">
         <v>122</v>
@@ -17132,7 +17132,7 @@
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A888" s="65" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B888" s="65" t="s">
         <v>104</v>
@@ -17154,7 +17154,7 @@
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A890" s="65" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B890" s="65" t="s">
         <v>146</v>
@@ -17165,7 +17165,7 @@
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A891" s="65" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B891" s="65" t="s">
         <v>299</v>
@@ -17187,7 +17187,7 @@
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A893" s="65" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B893" s="65" t="s">
         <v>104</v>
@@ -17198,7 +17198,7 @@
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A894" s="65" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B894" s="65" t="s">
         <v>922</v>
@@ -17209,7 +17209,7 @@
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A895" s="65" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B895" s="65" t="s">
         <v>310</v>
@@ -17220,7 +17220,7 @@
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A896" s="65" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B896" s="65" t="s">
         <v>310</v>
@@ -17231,10 +17231,10 @@
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A897" s="65" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B897" s="65" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C897" s="65" t="s">
         <v>182</v>
@@ -17242,7 +17242,7 @@
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A898" s="65" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B898" s="65" t="s">
         <v>95</v>
@@ -17253,7 +17253,7 @@
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A899" s="65" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B899" s="65" t="s">
         <v>146</v>
@@ -17264,29 +17264,29 @@
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A900" s="65" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B900" s="65" t="s">
         <v>250</v>
       </c>
       <c r="C900" s="65" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A901" s="65" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B901" s="65" t="s">
         <v>104</v>
       </c>
       <c r="C901" s="65" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A902" s="65" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B902" s="65" t="s">
         <v>568</v>
@@ -17297,7 +17297,7 @@
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A903" s="65" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B903" s="65" t="s">
         <v>616</v>
@@ -17314,12 +17314,12 @@
         <v>936</v>
       </c>
       <c r="C904" s="65" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A905" s="65" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B905" s="65" t="s">
         <v>104</v>
@@ -17330,21 +17330,21 @@
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A906" s="65" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B906" s="65" t="s">
         <v>843</v>
       </c>
       <c r="C906" s="65" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A907" s="65" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B907" s="65" t="s">
         <v>1195</v>
-      </c>
-      <c r="B907" s="65" t="s">
-        <v>1196</v>
       </c>
       <c r="C907" s="65" t="s">
         <v>182</v>
@@ -17352,7 +17352,7 @@
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A908" s="65" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B908" s="65" t="s">
         <v>175</v>
@@ -17363,7 +17363,7 @@
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A909" s="65" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B909" s="65" t="s">
         <v>480</v>
@@ -17374,18 +17374,18 @@
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A910" s="65" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B910" s="65" t="s">
         <v>135</v>
       </c>
       <c r="C910" s="65" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A911" s="65" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B911" s="65" t="s">
         <v>175</v>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A912" s="65" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B912" s="65" t="s">
         <v>184</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A913" s="65" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B913" s="65" t="s">
         <v>264</v>
@@ -17418,7 +17418,7 @@
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A914" s="65" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B914" s="65" t="s">
         <v>247</v>
@@ -17429,21 +17429,21 @@
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A915" s="65" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B915" s="65" t="s">
         <v>334</v>
       </c>
       <c r="C915" s="65" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A916" s="65" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B916" s="65" t="s">
         <v>1206</v>
-      </c>
-      <c r="B916" s="65" t="s">
-        <v>1207</v>
       </c>
       <c r="C916" s="65" t="s">
         <v>322</v>
@@ -17451,7 +17451,7 @@
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A917" s="65" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B917" s="65" t="s">
         <v>271</v>
@@ -17462,7 +17462,7 @@
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A918" s="65" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B918" s="65" t="s">
         <v>127</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A919" s="65" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B919" s="65" t="s">
         <v>547</v>
@@ -17484,7 +17484,7 @@
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A920" s="65" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B920" s="65" t="s">
         <v>287</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A921" s="65" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B921" s="65" t="s">
         <v>244</v>
@@ -17506,7 +17506,7 @@
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A922" s="65" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B922" s="65" t="s">
         <v>146</v>
@@ -17517,7 +17517,7 @@
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A923" s="65" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B923" s="65" t="s">
         <v>934</v>
@@ -17528,7 +17528,7 @@
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A924" s="65" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B924" s="65" t="s">
         <v>310</v>
@@ -17539,7 +17539,7 @@
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A925" s="65" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B925" s="65" t="s">
         <v>104</v>
@@ -17561,7 +17561,7 @@
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A927" s="65" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B927" s="65" t="s">
         <v>95</v>
@@ -17572,7 +17572,7 @@
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A928" s="65" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B928" s="65" t="s">
         <v>271</v>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A929" s="65" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B929" s="65" t="s">
         <v>432</v>
@@ -17594,7 +17594,7 @@
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A930" s="65" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B930" s="65" t="s">
         <v>568</v>
@@ -17605,7 +17605,7 @@
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A931" s="65" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B931" s="65" t="s">
         <v>104</v>
@@ -17616,7 +17616,7 @@
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A932" s="65" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B932" s="65" t="s">
         <v>616</v>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A933" s="65" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B933" s="65" t="s">
         <v>652</v>
@@ -17638,7 +17638,7 @@
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A934" s="65" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B934" s="65" t="s">
         <v>922</v>
@@ -17649,18 +17649,18 @@
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A935" s="65" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B935" s="65" t="s">
         <v>234</v>
       </c>
       <c r="C935" s="65" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A936" s="65" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B936" s="65" t="s">
         <v>531</v>
@@ -17671,7 +17671,7 @@
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A937" s="65" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B937" s="65" t="s">
         <v>68</v>
@@ -17682,7 +17682,7 @@
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A938" s="65" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B938" s="65" t="s">
         <v>310</v>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A939" s="65" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B939" s="65" t="s">
         <v>95</v>
@@ -17704,7 +17704,7 @@
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A940" s="65" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B940" s="65" t="s">
         <v>175</v>
@@ -17715,7 +17715,7 @@
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A941" s="65" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B941" s="65" t="s">
         <v>310</v>
@@ -17726,7 +17726,7 @@
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A942" s="65" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B942" s="65" t="s">
         <v>132</v>
@@ -17737,18 +17737,18 @@
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A943" s="65" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B943" s="65" t="s">
         <v>825</v>
       </c>
       <c r="C943" s="65" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A944" s="65" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B944" s="65" t="s">
         <v>146</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A945" s="65" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B945" s="65" t="s">
         <v>130</v>
@@ -17770,7 +17770,7 @@
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A946" s="65" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B946" s="65" t="s">
         <v>132</v>
@@ -17787,12 +17787,12 @@
         <v>271</v>
       </c>
       <c r="C947" s="65" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A948" s="65" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B948" s="65" t="s">
         <v>934</v>
@@ -17803,10 +17803,10 @@
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A949" s="65" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B949" s="65" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C949" s="65" t="s">
         <v>152</v>
@@ -17814,7 +17814,7 @@
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A950" s="65" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B950" s="65" t="s">
         <v>299</v>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A951" s="65" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B951" s="65" t="s">
         <v>375</v>
@@ -17847,24 +17847,24 @@
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A953" s="65" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B953" s="65" t="s">
         <v>633</v>
       </c>
       <c r="C953" s="65" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A954" s="65" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B954" s="65" t="s">
         <v>177</v>
       </c>
       <c r="C954" s="65" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.3">
@@ -17872,15 +17872,15 @@
         <v>217</v>
       </c>
       <c r="B955" s="65" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C955" s="65" t="s">
         <v>1244</v>
-      </c>
-      <c r="C955" s="65" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A956" s="65" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B956" s="65" t="s">
         <v>922</v>
@@ -17891,18 +17891,18 @@
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A957" s="65" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B957" s="65" t="s">
         <v>234</v>
       </c>
       <c r="C957" s="65" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A958" s="65" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B958" s="65" t="s">
         <v>531</v>
@@ -17913,7 +17913,7 @@
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A959" s="65" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B959" s="65" t="s">
         <v>68</v>
@@ -17924,7 +17924,7 @@
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A960" s="65" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B960" s="65" t="s">
         <v>310</v>
@@ -17935,7 +17935,7 @@
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A961" s="65" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B961" s="65" t="s">
         <v>95</v>
@@ -17946,7 +17946,7 @@
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A962" s="65" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B962" s="65" t="s">
         <v>175</v>
@@ -17957,7 +17957,7 @@
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A963" s="65" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B963" s="65" t="s">
         <v>310</v>
@@ -17968,7 +17968,7 @@
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A964" s="65" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B964" s="65" t="s">
         <v>132</v>
@@ -17979,18 +17979,18 @@
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A965" s="65" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B965" s="65" t="s">
         <v>825</v>
       </c>
       <c r="C965" s="65" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A966" s="65" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B966" s="65" t="s">
         <v>146</v>
@@ -18001,7 +18001,7 @@
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A967" s="65" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B967" s="65" t="s">
         <v>130</v>
@@ -18012,7 +18012,7 @@
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A968" s="65" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B968" s="65" t="s">
         <v>132</v>
@@ -18029,12 +18029,12 @@
         <v>271</v>
       </c>
       <c r="C969" s="65" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A970" s="65" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B970" s="65" t="s">
         <v>934</v>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A973" s="65" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B973" s="65" t="s">
         <v>334</v>
@@ -18078,7 +18078,7 @@
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A974" s="65" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B974" s="65" t="s">
         <v>104</v>
@@ -18100,7 +18100,7 @@
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A976" s="65" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B976" s="65" t="s">
         <v>255</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A977" s="65" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B977" s="65" t="s">
         <v>375</v>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A978" s="65" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B978" s="65" t="s">
         <v>568</v>
@@ -18133,7 +18133,7 @@
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A979" s="65" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B979" s="65" t="s">
         <v>130</v>
@@ -18144,13 +18144,13 @@
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A980" s="65" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B980" s="65" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C980" s="65" t="s">
         <v>1252</v>
-      </c>
-      <c r="C980" s="65" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.3">
@@ -18166,7 +18166,7 @@
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A982" s="65" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B982" s="65" t="s">
         <v>164</v>
@@ -18177,10 +18177,10 @@
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A983" s="65" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B983" s="65" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C983" s="65" t="s">
         <v>96</v>
@@ -18188,13 +18188,13 @@
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A984" s="65" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B984" s="65" t="s">
         <v>1256</v>
       </c>
-      <c r="B984" s="65" t="s">
+      <c r="C984" s="65" t="s">
         <v>1257</v>
-      </c>
-      <c r="C984" s="65" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.3">
@@ -18221,18 +18221,18 @@
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A987" s="65" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B987" s="65" t="s">
         <v>480</v>
       </c>
       <c r="C987" s="65" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A988" s="65" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B988" s="65" t="s">
         <v>922</v>
@@ -18243,18 +18243,18 @@
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A989" s="65" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B989" s="65" t="s">
         <v>234</v>
       </c>
       <c r="C989" s="65" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A990" s="65" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B990" s="65" t="s">
         <v>531</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A991" s="65" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B991" s="65" t="s">
         <v>68</v>
@@ -18276,7 +18276,7 @@
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A992" s="65" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B992" s="65" t="s">
         <v>310</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A993" s="65" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B993" s="65" t="s">
         <v>95</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A994" s="65" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B994" s="65" t="s">
         <v>175</v>
@@ -18309,7 +18309,7 @@
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A995" s="65" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B995" s="65" t="s">
         <v>310</v>
@@ -18320,7 +18320,7 @@
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A996" s="65" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B996" s="65" t="s">
         <v>132</v>
@@ -18331,18 +18331,18 @@
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A997" s="65" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B997" s="65" t="s">
         <v>825</v>
       </c>
       <c r="C997" s="65" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A998" s="65" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B998" s="65" t="s">
         <v>146</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A999" s="65" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B999" s="65" t="s">
         <v>130</v>
@@ -18364,7 +18364,7 @@
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1000" s="65" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B1000" s="65" t="s">
         <v>132</v>
@@ -18381,12 +18381,12 @@
         <v>271</v>
       </c>
       <c r="C1001" s="65" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1002" s="65" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B1002" s="65" t="s">
         <v>934</v>
@@ -18397,7 +18397,7 @@
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1003" s="65" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B1003" s="65" t="s">
         <v>922</v>
@@ -18408,18 +18408,18 @@
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1004" s="65" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B1004" s="65" t="s">
         <v>234</v>
       </c>
       <c r="C1004" s="65" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1005" s="65" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B1005" s="65" t="s">
         <v>531</v>
@@ -18430,7 +18430,7 @@
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1006" s="65" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B1006" s="65" t="s">
         <v>68</v>
@@ -18441,7 +18441,7 @@
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1007" s="65" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1007" s="65" t="s">
         <v>310</v>
@@ -18452,7 +18452,7 @@
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1008" s="65" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B1008" s="65" t="s">
         <v>95</v>
@@ -18463,7 +18463,7 @@
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1009" s="65" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B1009" s="65" t="s">
         <v>175</v>
@@ -18474,7 +18474,7 @@
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1010" s="65" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1010" s="65" t="s">
         <v>310</v>
@@ -18485,7 +18485,7 @@
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1011" s="65" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B1011" s="65" t="s">
         <v>132</v>
@@ -18496,18 +18496,18 @@
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1012" s="65" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B1012" s="65" t="s">
         <v>825</v>
       </c>
       <c r="C1012" s="65" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1013" s="65" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B1013" s="65" t="s">
         <v>146</v>
@@ -18518,7 +18518,7 @@
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1014" s="65" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B1014" s="65" t="s">
         <v>130</v>
@@ -18529,7 +18529,7 @@
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1015" s="65" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B1015" s="65" t="s">
         <v>132</v>
@@ -18546,12 +18546,12 @@
         <v>271</v>
       </c>
       <c r="C1016" s="65" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1017" s="65" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B1017" s="65" t="s">
         <v>934</v>
@@ -18562,7 +18562,7 @@
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1018" s="65" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1018" s="65" t="s">
         <v>287</v>
@@ -18573,7 +18573,7 @@
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1019" s="65" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1019" s="65" t="s">
         <v>124</v>
@@ -18584,10 +18584,10 @@
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1020" s="65" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1020" s="65" t="s">
         <v>1263</v>
-      </c>
-      <c r="B1020" s="65" t="s">
-        <v>1264</v>
       </c>
       <c r="C1020" s="65" t="s">
         <v>115</v>
@@ -18595,7 +18595,7 @@
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1021" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1021" s="65" t="s">
         <v>287</v>
@@ -18606,7 +18606,7 @@
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1022" s="65" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1022" s="65" t="s">
         <v>287</v>
@@ -18617,7 +18617,7 @@
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1023" s="65" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1023" s="65" t="s">
         <v>124</v>
@@ -18628,10 +18628,10 @@
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1024" s="65" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1024" s="65" t="s">
         <v>1263</v>
-      </c>
-      <c r="B1024" s="65" t="s">
-        <v>1264</v>
       </c>
       <c r="C1024" s="65" t="s">
         <v>115</v>
@@ -18639,7 +18639,7 @@
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1025" s="65" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1025" s="65" t="s">
         <v>287</v>
@@ -18672,29 +18672,29 @@
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1028" s="65" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1028" s="65" t="s">
         <v>657</v>
       </c>
       <c r="C1028" s="65" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1029" s="65" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B1029" s="65" t="s">
         <v>106</v>
       </c>
       <c r="C1029" s="65" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1030" s="65" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B1030" s="65" t="s">
         <v>104</v>
@@ -18705,51 +18705,51 @@
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1031" s="65" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1031" s="65" t="s">
         <v>287</v>
       </c>
       <c r="C1031" s="65" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1032" s="65" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1032" s="65" t="s">
         <v>175</v>
       </c>
       <c r="C1032" s="65" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1033" s="65" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1033" s="65" t="s">
         <v>1274</v>
       </c>
-      <c r="B1033" s="65" t="s">
+      <c r="C1033" s="65" t="s">
         <v>1275</v>
-      </c>
-      <c r="C1033" s="65" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1034" s="65" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1034" s="65" t="s">
         <v>1277</v>
       </c>
-      <c r="B1034" s="65" t="s">
-        <v>1278</v>
-      </c>
       <c r="C1034" s="65" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1035" s="65" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1035" s="65" t="s">
         <v>98</v>
@@ -18760,7 +18760,7 @@
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1036" s="65" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B1036" s="65" t="s">
         <v>264</v>
@@ -18771,35 +18771,35 @@
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1037" s="65" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1037" s="65" t="s">
         <v>138</v>
       </c>
       <c r="C1037" s="65" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1038" s="65" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1038" s="65" t="s">
         <v>264</v>
       </c>
       <c r="C1038" s="65" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1039" s="65" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1039" s="65" t="s">
         <v>1284</v>
       </c>
-      <c r="B1039" s="65" t="s">
+      <c r="C1039" s="65" t="s">
         <v>1285</v>
-      </c>
-      <c r="C1039" s="65" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.3">
@@ -18815,7 +18815,7 @@
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1041" s="65" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1041" s="65" t="s">
         <v>375</v>
@@ -18826,7 +18826,7 @@
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1042" s="65" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1042" s="65" t="s">
         <v>146</v>
@@ -18837,7 +18837,7 @@
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1043" s="65" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1043" s="65" t="s">
         <v>130</v>
@@ -18848,7 +18848,7 @@
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1044" s="65" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1044" s="65" t="s">
         <v>187</v>
@@ -18859,7 +18859,7 @@
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1045" s="65" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1045" s="65" t="s">
         <v>264</v>
@@ -18870,7 +18870,7 @@
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1046" s="65" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1046" s="65" t="s">
         <v>132</v>
@@ -18881,7 +18881,7 @@
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1047" s="65" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1047" s="65" t="s">
         <v>127</v>
@@ -18892,7 +18892,7 @@
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1048" s="65" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B1048" s="65" t="s">
         <v>104</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1049" s="65" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1049" s="65" t="s">
         <v>132</v>
@@ -18914,7 +18914,7 @@
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1050" s="65" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B1050" s="65" t="s">
         <v>162</v>
@@ -18925,10 +18925,10 @@
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1051" s="65" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1051" s="65" t="s">
         <v>1296</v>
-      </c>
-      <c r="B1051" s="65" t="s">
-        <v>1297</v>
       </c>
       <c r="C1051" s="65" t="s">
         <v>185</v>
@@ -18936,18 +18936,18 @@
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1052" s="65" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1052" s="65" t="s">
         <v>1298</v>
       </c>
-      <c r="B1052" s="65" t="s">
+      <c r="C1052" s="65" t="s">
         <v>1299</v>
-      </c>
-      <c r="C1052" s="65" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1053" s="65" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1053" s="65" t="s">
         <v>104</v>
@@ -18958,7 +18958,7 @@
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1054" s="65" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1054" s="65" t="s">
         <v>310</v>
@@ -18969,7 +18969,7 @@
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1055" s="65" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B1055" s="65" t="s">
         <v>264</v>
@@ -18980,10 +18980,10 @@
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1056" s="65" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1056" s="65" t="s">
         <v>1303</v>
-      </c>
-      <c r="B1056" s="65" t="s">
-        <v>1304</v>
       </c>
       <c r="C1056" s="65" t="s">
         <v>66</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1057" s="65" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B1057" s="65" t="s">
         <v>106</v>
@@ -19002,7 +19002,7 @@
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1058" s="65" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B1058" s="65" t="s">
         <v>453</v>
@@ -19013,18 +19013,18 @@
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1059" s="65" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1059" s="65" t="s">
         <v>1307</v>
       </c>
-      <c r="B1059" s="65" t="s">
+      <c r="C1059" s="65" t="s">
         <v>1308</v>
-      </c>
-      <c r="C1059" s="65" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1060" s="65" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1060" s="65" t="s">
         <v>523</v>
@@ -19035,10 +19035,10 @@
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1061" s="65" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1061" s="65" t="s">
         <v>1310</v>
-      </c>
-      <c r="B1061" s="65" t="s">
-        <v>1311</v>
       </c>
       <c r="C1061" s="65" t="s">
         <v>173</v>
@@ -19046,7 +19046,7 @@
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1062" s="65" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B1062" s="65" t="s">
         <v>496</v>
@@ -19079,18 +19079,18 @@
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1065" s="65" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B1065" s="65" t="s">
         <v>98</v>
       </c>
       <c r="C1065" s="65" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1066" s="65" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1066" s="65" t="s">
         <v>106</v>
@@ -19101,7 +19101,7 @@
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1067" s="65" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B1067" s="65" t="s">
         <v>98</v>
@@ -19112,29 +19112,29 @@
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1068" s="65" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1068" s="65" t="s">
         <v>1316</v>
       </c>
-      <c r="B1068" s="65" t="s">
+      <c r="C1068" s="65" t="s">
         <v>1317</v>
-      </c>
-      <c r="C1068" s="65" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1069" s="65" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1069" s="65" t="s">
         <v>310</v>
       </c>
       <c r="C1069" s="65" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1070" s="65" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1070" s="65" t="s">
         <v>212</v>
@@ -19145,7 +19145,7 @@
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1071" s="65" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B1071" s="65" t="s">
         <v>234</v>
@@ -19167,10 +19167,10 @@
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1073" s="65" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1073" s="65" t="s">
         <v>1323</v>
-      </c>
-      <c r="B1073" s="65" t="s">
-        <v>1324</v>
       </c>
       <c r="C1073" s="65" t="s">
         <v>99</v>
@@ -19178,10 +19178,10 @@
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1074" s="65" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1074" s="65" t="s">
         <v>1325</v>
-      </c>
-      <c r="B1074" s="65" t="s">
-        <v>1326</v>
       </c>
       <c r="C1074" s="65" t="s">
         <v>504</v>
@@ -19192,15 +19192,15 @@
         <v>457</v>
       </c>
       <c r="B1075" s="65" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C1075" s="65" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1076" s="65" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1076" s="65" t="s">
         <v>275</v>
@@ -19211,10 +19211,10 @@
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1077" s="65" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1077" s="65" t="s">
         <v>1329</v>
-      </c>
-      <c r="B1077" s="65" t="s">
-        <v>1330</v>
       </c>
       <c r="C1077" s="65" t="s">
         <v>128</v>
@@ -19222,7 +19222,7 @@
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1078" s="65" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1078" s="65" t="s">
         <v>175</v>
@@ -19233,18 +19233,18 @@
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1079" s="65" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1079" s="65" t="s">
         <v>130</v>
       </c>
       <c r="C1079" s="65" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1080" s="65" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B1080" s="65" t="s">
         <v>175</v>
@@ -19255,7 +19255,7 @@
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1081" s="65" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1081" s="65" t="s">
         <v>400</v>
@@ -19266,7 +19266,7 @@
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1082" s="65" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1082" s="65" t="s">
         <v>175</v>
@@ -19277,7 +19277,7 @@
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1083" s="65" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1083" s="65" t="s">
         <v>924</v>
@@ -19288,13 +19288,13 @@
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1084" s="65" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1084" s="65" t="s">
         <v>1338</v>
       </c>
-      <c r="B1084" s="65" t="s">
+      <c r="C1084" s="65" t="s">
         <v>1339</v>
-      </c>
-      <c r="C1084" s="65" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.3">
@@ -19302,18 +19302,18 @@
         <v>842</v>
       </c>
       <c r="B1085" s="65" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C1085" s="65" t="s">
         <v>1341</v>
-      </c>
-      <c r="C1085" s="65" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1086" s="65" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1086" s="65" t="s">
         <v>1343</v>
-      </c>
-      <c r="B1086" s="65" t="s">
-        <v>1344</v>
       </c>
       <c r="C1086" s="65" t="s">
         <v>99</v>
@@ -19321,7 +19321,7 @@
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1087" s="65" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B1087" s="65" t="s">
         <v>310</v>
@@ -19332,29 +19332,29 @@
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1088" s="65" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B1088" s="65" t="s">
         <v>384</v>
       </c>
       <c r="C1088" s="65" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1089" s="65" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1089" s="65" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C1089" s="65" t="s">
         <v>1348</v>
-      </c>
-      <c r="B1089" s="65" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C1089" s="65" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1090" s="65" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B1090" s="65" t="s">
         <v>146</v>
@@ -19365,18 +19365,18 @@
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1091" s="65" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B1091" s="65" t="s">
         <v>375</v>
       </c>
       <c r="C1091" s="65" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1092" s="65" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B1092" s="65" t="s">
         <v>162</v>
@@ -19387,7 +19387,7 @@
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1093" s="65" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B1093" s="65" t="s">
         <v>436</v>
@@ -19398,7 +19398,7 @@
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1094" s="65" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B1094" s="65" t="s">
         <v>375</v>
@@ -19409,13 +19409,13 @@
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1095" s="65" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1095" s="65" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1095" s="65" t="s">
         <v>1357</v>
-      </c>
-      <c r="B1095" s="65" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C1095" s="65" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.3">
@@ -19431,7 +19431,7 @@
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1097" s="65" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B1097" s="65" t="s">
         <v>706</v>
@@ -19442,7 +19442,7 @@
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1098" s="65" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B1098" s="65" t="s">
         <v>924</v>
@@ -19453,10 +19453,10 @@
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1099" s="65" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B1099" s="65" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C1099" s="65" t="s">
         <v>112</v>
@@ -19464,57 +19464,57 @@
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1100" s="65" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B1100" s="65" t="s">
         <v>786</v>
       </c>
       <c r="C1100" s="65" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1101" s="65" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1101" s="65" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C1101" s="65" t="s">
         <v>1365</v>
-      </c>
-      <c r="B1101" s="65" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C1101" s="65" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1102" s="65" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1102" s="65" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1102" s="65" t="s">
         <v>1368</v>
-      </c>
-      <c r="B1102" s="65" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C1102" s="65" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1103" s="65" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1103" s="65" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1103" s="65" t="s">
         <v>1371</v>
-      </c>
-      <c r="B1103" s="65" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C1103" s="65" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1104" s="65" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B1104" s="65" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C1104" s="65" t="s">
         <v>1374</v>
-      </c>
-      <c r="B1104" s="65" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C1104" s="65" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.3">
@@ -19530,29 +19530,29 @@
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1106" s="65" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1106" s="65" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C1106" s="65" t="s">
         <v>1377</v>
-      </c>
-      <c r="B1106" s="65" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C1106" s="65" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1107" s="65" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B1107" s="65" t="s">
         <v>104</v>
       </c>
       <c r="C1107" s="65" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1108" s="65" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B1108" s="65" t="s">
         <v>432</v>
@@ -19563,21 +19563,21 @@
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1109" s="65" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B1109" s="65" t="s">
         <v>341</v>
       </c>
       <c r="C1109" s="65" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1110" s="65" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B1110" s="65" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C1110" s="65" t="s">
         <v>173</v>
@@ -19585,7 +19585,7 @@
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1111" s="65" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B1111" s="65" t="s">
         <v>184</v>
@@ -19596,7 +19596,7 @@
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1112" s="65" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B1112" s="65" t="s">
         <v>122</v>
@@ -19607,18 +19607,18 @@
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1113" s="65" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B1113" s="65" t="s">
         <v>715</v>
       </c>
       <c r="C1113" s="65" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1114" s="65" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B1114" s="65" t="s">
         <v>146</v>
@@ -19629,7 +19629,7 @@
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1115" s="65" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1115" s="65" t="s">
         <v>570</v>
@@ -19640,10 +19640,10 @@
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1116" s="65" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B1116" s="65" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C1116" s="65" t="s">
         <v>322</v>
@@ -19651,18 +19651,18 @@
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1117" s="65" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B1117" s="65" t="s">
         <v>922</v>
       </c>
       <c r="C1117" s="65" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1118" s="65" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B1118" s="65" t="s">
         <v>336</v>
@@ -19684,7 +19684,7 @@
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1120" s="65" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B1120" s="65" t="s">
         <v>104</v>
@@ -19695,10 +19695,10 @@
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1121" s="65" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B1121" s="65" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C1121" s="65" t="s">
         <v>306</v>
@@ -19717,21 +19717,21 @@
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1123" s="65" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B1123" s="65" t="s">
         <v>453</v>
       </c>
       <c r="C1123" s="65" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1124" s="65" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B1124" s="65" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C1124" s="65" t="s">
         <v>99</v>
@@ -19739,7 +19739,7 @@
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1125" s="65" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B1125" s="65" t="s">
         <v>168</v>
@@ -19772,7 +19772,7 @@
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1128" s="65" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B1128" s="65" t="s">
         <v>127</v>
@@ -19783,7 +19783,7 @@
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1129" s="65" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B1129" s="65" t="s">
         <v>264</v>
@@ -19794,18 +19794,18 @@
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1130" s="65" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B1130" s="65" t="s">
         <v>104</v>
       </c>
       <c r="C1130" s="65" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1131" s="65" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B1131" s="65" t="s">
         <v>104</v>
@@ -19816,7 +19816,7 @@
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1132" s="65" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B1132" s="65" t="s">
         <v>400</v>
@@ -19827,10 +19827,10 @@
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1133" s="65" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B1133" s="65" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C1133" s="65" t="s">
         <v>198</v>
@@ -19838,7 +19838,7 @@
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1134" s="65" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B1134" s="65" t="s">
         <v>453</v>
@@ -19849,7 +19849,7 @@
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1135" s="65" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B1135" s="65" t="s">
         <v>271</v>
@@ -19860,7 +19860,7 @@
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1136" s="65" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B1136" s="65" t="s">
         <v>175</v>
@@ -19882,7 +19882,7 @@
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1138" s="65" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B1138" s="65" t="s">
         <v>453</v>
@@ -19893,7 +19893,7 @@
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1139" s="65" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B1139" s="65" t="s">
         <v>130</v>
@@ -19915,7 +19915,7 @@
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1141" s="65" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B1141" s="65" t="s">
         <v>104</v>
@@ -19926,7 +19926,7 @@
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1142" s="65" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B1142" s="65" t="s">
         <v>310</v>
@@ -19937,7 +19937,7 @@
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1143" s="65" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B1143" s="65" t="s">
         <v>547</v>
@@ -19948,7 +19948,7 @@
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1144" s="65" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B1144" s="65" t="s">
         <v>310</v>
@@ -19959,7 +19959,7 @@
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1145" s="65" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B1145" s="65" t="s">
         <v>187</v>
@@ -19981,7 +19981,7 @@
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1147" s="65" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B1147" s="65" t="s">
         <v>264</v>
@@ -19992,18 +19992,18 @@
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1148" s="65" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B1148" s="65" t="s">
         <v>677</v>
       </c>
       <c r="C1148" s="65" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1149" s="65" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B1149" s="65" t="s">
         <v>287</v>
@@ -20014,7 +20014,7 @@
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1150" s="65" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B1150" s="65" t="s">
         <v>320</v>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1151" s="65" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B1151" s="65" t="s">
         <v>922</v>
@@ -20036,43 +20036,43 @@
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1152" s="65" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B1152" s="65" t="s">
         <v>616</v>
       </c>
       <c r="C1152" s="65" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1153" s="65" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B1153" s="65" t="s">
         <v>320</v>
       </c>
       <c r="C1153" s="65" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1154" s="65" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B1154" s="65" t="s">
         <v>122</v>
       </c>
       <c r="C1154" s="65" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1155" s="65" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B1155" s="65" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C1155" s="65" t="s">
         <v>102</v>
@@ -20080,7 +20080,7 @@
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1156" s="65" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B1156" s="65" t="s">
         <v>212</v>
@@ -20091,7 +20091,7 @@
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1157" s="65" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B1157" s="65" t="s">
         <v>216</v>
@@ -20102,7 +20102,7 @@
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1158" s="65" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B1158" s="65" t="s">
         <v>95</v>
@@ -20113,21 +20113,21 @@
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1159" s="65" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B1159" s="65" t="s">
         <v>310</v>
       </c>
       <c r="C1159" s="65" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1160" s="65" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B1160" s="65" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C1160" s="65" t="s">
         <v>259</v>
@@ -20135,10 +20135,10 @@
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1161" s="65" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B1161" s="65" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C1161" s="65" t="s">
         <v>99</v>
@@ -20146,7 +20146,7 @@
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1162" s="65" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B1162" s="65" t="s">
         <v>264</v>
@@ -20168,7 +20168,7 @@
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1164" s="65" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B1164" s="65" t="s">
         <v>361</v>
@@ -20179,21 +20179,21 @@
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1165" s="65" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B1165" s="65" t="s">
         <v>162</v>
       </c>
       <c r="C1165" s="65" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1166" s="65" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B1166" s="65" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C1166" s="65" t="s">
         <v>112</v>
@@ -20201,7 +20201,7 @@
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1167" s="65" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B1167" s="65" t="s">
         <v>175</v>
@@ -20212,7 +20212,7 @@
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1168" s="65" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B1168" s="65" t="s">
         <v>800</v>
@@ -20223,7 +20223,7 @@
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1169" s="65" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B1169" s="65" t="s">
         <v>389</v>
@@ -20234,7 +20234,7 @@
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1170" s="65" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B1170" s="65" t="s">
         <v>924</v>
@@ -20248,15 +20248,15 @@
         <v>479</v>
       </c>
       <c r="B1171" s="65" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="C1171" s="65" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1172" s="65" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B1172" s="65" t="s">
         <v>166</v>
@@ -20267,7 +20267,7 @@
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1173" s="65" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B1173" s="65" t="s">
         <v>95</v>
@@ -20278,7 +20278,7 @@
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1174" s="65" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B1174" s="65" t="s">
         <v>104</v>
@@ -20289,10 +20289,10 @@
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1175" s="65" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1175" s="65" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C1175" s="65" t="s">
         <v>306</v>
@@ -20300,7 +20300,7 @@
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1176" s="65" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B1176" s="65" t="s">
         <v>175</v>
@@ -20311,7 +20311,7 @@
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1177" s="65" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B1177" s="65" t="s">
         <v>98</v>
@@ -20322,10 +20322,10 @@
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1178" s="65" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B1178" s="65" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C1178" s="65" t="s">
         <v>182</v>
@@ -20333,18 +20333,18 @@
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1179" s="65" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B1179" s="65" t="s">
         <v>924</v>
       </c>
       <c r="C1179" s="65" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1180" s="65" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B1180" s="65" t="s">
         <v>104</v>
@@ -20355,7 +20355,7 @@
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1181" s="65" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B1181" s="65" t="s">
         <v>135</v>
@@ -20366,7 +20366,7 @@
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1182" s="65" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1182" s="65" t="s">
         <v>334</v>
@@ -20377,7 +20377,7 @@
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1183" s="65" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B1183" s="65" t="s">
         <v>264</v>
@@ -20388,7 +20388,7 @@
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1184" s="65" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B1184" s="65" t="s">
         <v>202</v>
@@ -20410,10 +20410,10 @@
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1186" s="65" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B1186" s="65" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="C1186" s="65" t="s">
         <v>575</v>
@@ -20421,7 +20421,7 @@
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1187" s="65" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B1187" s="65" t="s">
         <v>168</v>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1188" s="65" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B1188" s="65" t="s">
         <v>130</v>
@@ -20443,7 +20443,7 @@
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1189" s="65" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B1189" s="65" t="s">
         <v>175</v>
@@ -20454,7 +20454,7 @@
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1190" s="65" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B1190" s="65" t="s">
         <v>166</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1191" s="65" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B1191" s="65" t="s">
         <v>465</v>
@@ -20476,21 +20476,21 @@
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1192" s="65" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B1192" s="65" t="s">
         <v>193</v>
       </c>
       <c r="C1192" s="65" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1193" s="65" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B1193" s="65" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C1193" s="65" t="s">
         <v>128</v>
@@ -20498,18 +20498,18 @@
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1194" s="65" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B1194" s="65" t="s">
         <v>564</v>
       </c>
       <c r="C1194" s="65" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1195" s="65" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B1195" s="65" t="s">
         <v>275</v>
@@ -20520,18 +20520,18 @@
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1196" s="65" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B1196" s="65" t="s">
         <v>101</v>
       </c>
       <c r="C1196" s="65" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1197" s="65" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B1197" s="65" t="s">
         <v>95</v>
@@ -20540,7 +20540,7 @@
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1198" s="65" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B1198" s="65" t="s">
         <v>216</v>
@@ -20551,7 +20551,7 @@
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1199" s="65" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B1199" s="65" t="s">
         <v>749</v>
@@ -20562,32 +20562,32 @@
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1200" s="65" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B1200" s="65" t="s">
         <v>784</v>
       </c>
       <c r="C1200" s="65" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1201" s="65" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1201" s="65" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C1201" s="65" t="s">
         <v>1483</v>
-      </c>
-      <c r="B1201" s="65" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C1201" s="65" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1202" s="65" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B1202" s="65" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C1202" s="65" t="s">
         <v>284</v>
@@ -20595,7 +20595,7 @@
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1203" s="65" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B1203" s="65" t="s">
         <v>187</v>
@@ -20606,7 +20606,7 @@
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1204" s="65" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B1204" s="65" t="s">
         <v>375</v>
@@ -20617,7 +20617,7 @@
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1205" s="65" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B1205" s="65" t="s">
         <v>216</v>
@@ -20639,7 +20639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
